--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2812751.599234323</v>
+        <v>2877743.321947686</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276634</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4674302.831621748</v>
+        <v>4727843.533770218</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>128.2301198503907</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -668,16 +668,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.1953825260219</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>170.6306905111303</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>17.71107786568362</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,13 +896,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>286.4134426397448</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>325.1742879987712</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491226</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>78.16475377673183</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>29.68613922827895</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>345.4056667988684</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>299.9405530688265</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.8791884746684</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>71.29060989875553</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>168.6160409848435</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>24.34318456170498</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>146.0608774216556</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>145.8999204549465</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225779</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800581</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2008,19 +2008,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>209.0649430937964</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2141,7 +2141,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430768</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,13 +2299,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>107.3792913045956</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2485,10 +2485,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>130.6556207749485</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>131.5141848153389</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>135.1077460700514</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>172.6623007436915</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3193,19 +3193,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>199.3487361229524</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0219631664181</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D35" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712949</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728915</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409759</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H35" t="n">
-        <v>283.499768089223</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.07627015600849</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561562</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435189</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
-        <v>398.0678151210842</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644895</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.4641775413502</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098044</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796144</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3213387897772</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758685</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1962773024377</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7640676445363</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.03426481107854</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968896</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9098700929904</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>185.4782752471548</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174329</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.346868126281</v>
+        <v>246.6208581842785</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4063890570399</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>431.0219631664181</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712949</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728915</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409759</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>283.499768089223</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.07627015600963</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435189</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>398.0678151210842</v>
+        <v>400.8069000430795</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644895</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4641775413502</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.1613476098044</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796144</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.3213387897772</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758685</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>161.1962773024377</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445363</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>85.03426481107854</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968896</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9098700929904</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="T40" t="n">
-        <v>200.2580879258572</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174329</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475785</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570399</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>431.0219631664181</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>138.9977418045389</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728915</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>394.6447681409759</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>283.499768089223</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.07627015600849</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>356.2516956435189</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>398.0678151210842</v>
+        <v>400.806900043078</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644895</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.4641775413502</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098044</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796144</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897772</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758685</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>161.1962773024377</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445363</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.03426481107854</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968896</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9098700929904</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6815670353364</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>272.9095858174329</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.346868126281</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475785</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.8347940192083</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580658</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>431.0219631664181</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>428.811602055307</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6979124712949</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728915</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6447681409759</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>283.499768089223</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.07627015600849</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
-        <v>215.1274699336989</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341604</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435189</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>398.0678151210842</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644895</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>113.7640068745933</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098044</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796144</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279484996</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.3213387897772</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2008985758685</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1962773024377</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>72.40241347253404</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6815670353364</v>
+        <v>82.62483121292163</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174329</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>281.346868126281</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475785</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4063890570399</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.6683834787607</v>
+        <v>1243.776125962249</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>1209.674057186077</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>781.092382923345</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>1370.967953963669</v>
+        <v>1373.301499548503</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4416,13 +4416,13 @@
         <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>973.0996549038641</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>800.5379433870891</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,16 +4492,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1344.17000724426</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1065.737006497366</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>778.7814983677961</v>
       </c>
       <c r="W4" t="n">
-        <v>1410.227921950848</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X4" t="n">
-        <v>1392.337944308743</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1164.918273622851</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>425.1696414432315</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>135.8631337263175</v>
       </c>
       <c r="D5" t="n">
-        <v>386.2295709184322</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.25941213986533</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>674.5331706342565</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1922.734738723815</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663911</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1679.712849597738</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1274.857395008771</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>855.7149315880819</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>851.4692119281393</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>431.6596472970914</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970914</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>422.5581434046701</v>
+        <v>989.5883728917331</v>
       </c>
       <c r="C7" t="n">
-        <v>422.5581434046701</v>
+        <v>817.0266613749581</v>
       </c>
       <c r="D7" t="n">
-        <v>422.5581434046701</v>
+        <v>651.1486685764808</v>
       </c>
       <c r="E7" t="n">
-        <v>252.8001396554074</v>
+        <v>481.390664827218</v>
       </c>
       <c r="F7" t="n">
-        <v>252.8001396554074</v>
+        <v>304.6836107889741</v>
       </c>
       <c r="G7" t="n">
-        <v>252.8001396554074</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="H7" t="n">
-        <v>112.8979653457819</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>538.7332355342593</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>958.7861344791625</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2491.633330253372</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2213.200329506477</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1926.244821376908</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1654.2184169632</v>
       </c>
       <c r="X7" t="n">
-        <v>614.3767621236573</v>
+        <v>1408.826662296612</v>
       </c>
       <c r="Y7" t="n">
-        <v>614.3767621236573</v>
+        <v>1181.40699161072</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>547.9560900011804</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>974.2556604860882</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1653.597487995201</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.794921203953</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1131.794921203953</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>886.4031665373657</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>886.4031665373657</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.969308202876</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2748761282468</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8770447515107</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>96.74689019472689</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.174713056128</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.484587889524</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4795.983373848119</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4732.853167277181</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4512.78594015022</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4253.563637467237</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.552920397787</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.69746580882</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.555002388131</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.268878687784</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>805.8239382394793</v>
+        <v>1039.174348374284</v>
       </c>
       <c r="C13" t="n">
-        <v>633.2622267227042</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>467.3842339242269</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>297.6262301749641</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>120.9191761367204</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>120.9191761367204</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>96.33010082186689</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S13" t="n">
-        <v>2553.748342022663</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.868895601118</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.435894854224</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.480386724654</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.453982310946</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.062227644358</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y13" t="n">
-        <v>997.6425569584665</v>
+        <v>1230.992967093271</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2232.363075206153</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2748761282468</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8770447515107</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.74689019472689</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.174713056128</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4100.852190381694</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4647.350976340288</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4732.853167277181</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4512.78594015022</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4253.563637467237</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3890.946687401063</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3486.091232812097</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3066.948769391407</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2658.662645691061</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963552</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>946.8261378987979</v>
+        <v>1162.814665109382</v>
       </c>
       <c r="C16" t="n">
-        <v>774.2644263820231</v>
+        <v>990.252953592607</v>
       </c>
       <c r="D16" t="n">
-        <v>608.3864335835458</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>438.6284298342831</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>261.9213757960392</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>96.33010082186689</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>96.33010082186689</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2694.750541681982</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.871095260437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.438094513542</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.482586383973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.456181970264</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.064427303677</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.644756617785</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5501,10 +5501,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5522,7 +5522,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423627</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>845.9697221592255</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>673.4080106424504</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>507.5300178439735</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>507.5300178439735</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057297</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5707,16 +5707,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1265.208011564104</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1037.788340878213</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.2056155771593</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1618.529374268236</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674087</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2292.381813755403</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>2005.426305625833</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1733.399901212125</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6306,13 +6306,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>845.683004334921</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>673.121292818146</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>673.121292818146</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601649</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>834.8539430951545</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>662.2922315783794</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>496.4142387799021</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4142387799021</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2336.898900456793</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2058.465899709899</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1771.510391580329</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1499.483987166621</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1254.092232500033</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1026.672561814142</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995628</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625509</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.564984246411</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851164</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068286</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765496</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>536.7165211191411</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>2548.949291195807</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.949291195807</v>
+        <v>2758.053686176686</v>
       </c>
       <c r="O35" t="n">
-        <v>3529.128957766113</v>
+        <v>3738.233352746992</v>
       </c>
       <c r="P35" t="n">
-        <v>4357.438832599509</v>
+        <v>4566.543227580389</v>
       </c>
       <c r="Q35" t="n">
-        <v>4903.937618558104</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.091683311161</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941454</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.906087260951</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024425</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404709</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.5116372622</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287967</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034078</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941583</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1161.152727152902</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C37" t="n">
-        <v>991.3577680825848</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>828.2465277305649</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>661.2552764277597</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>487.3149748359733</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>324.4904523082585</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>187.3550304450904</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
-        <v>190.7532129036861</v>
+        <v>188.8405254354744</v>
       </c>
       <c r="K37" t="n">
-        <v>468.2233615475946</v>
+        <v>463.59898000661</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883286</v>
+        <v>881.808861774571</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642014</v>
+        <v>1341.292728955484</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.310995872432</v>
+        <v>1783.551532113129</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170986</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214101</v>
+        <v>2550.727675309252</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151206</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R37" t="n">
-        <v>2721.163927303036</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S37" t="n">
-        <v>2564.68931104749</v>
+        <v>2559.679081471581</v>
       </c>
       <c r="T37" t="n">
-        <v>2377.337517868546</v>
+        <v>2313.799635050036</v>
       </c>
       <c r="U37" t="n">
-        <v>2101.671269568109</v>
+        <v>2035.366634303141</v>
       </c>
       <c r="V37" t="n">
-        <v>1817.482513884996</v>
+        <v>1786.254656339223</v>
       </c>
       <c r="W37" t="n">
-        <v>1817.482513884996</v>
+        <v>1514.228251925515</v>
       </c>
       <c r="X37" t="n">
-        <v>1574.857511664866</v>
+        <v>1268.836497258927</v>
       </c>
       <c r="Y37" t="n">
-        <v>1350.204593425432</v>
+        <v>1041.416826573035</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995628</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625508</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.56498424641</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851163</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068282</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8252357765496</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>536.7165211191411</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.949291195807</v>
+        <v>2758.053686176686</v>
       </c>
       <c r="O38" t="n">
-        <v>3529.128957766113</v>
+        <v>3738.233352746992</v>
       </c>
       <c r="P38" t="n">
-        <v>4357.438832599509</v>
+        <v>4566.543227580389</v>
       </c>
       <c r="Q38" t="n">
-        <v>4903.937618558104</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.091683311161</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941453</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.90608726095</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.450537024424</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404708</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.511637262199</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287967</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034078</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941583</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>127.5255068266808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1161.152727152902</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>991.3577680825848</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D40" t="n">
-        <v>828.2465277305649</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E40" t="n">
-        <v>661.2552764277597</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F40" t="n">
-        <v>487.3149748359733</v>
+        <v>407.7542895545775</v>
       </c>
       <c r="G40" t="n">
-        <v>324.4904523082585</v>
+        <v>242.1630145804052</v>
       </c>
       <c r="H40" t="n">
-        <v>187.3550304450904</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662232</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
-        <v>190.753212903686</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475945</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883286</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.310995872432</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170987</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151206</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2721.163927303036</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2564.68931104749</v>
+        <v>2594.704009018976</v>
       </c>
       <c r="T40" t="n">
-        <v>2362.408414152685</v>
+        <v>2594.704009018976</v>
       </c>
       <c r="U40" t="n">
-        <v>2086.742165852247</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V40" t="n">
-        <v>2086.742165852247</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1817.482513884996</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1574.857511664866</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1350.204593425432</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2214.546764549993</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.171044179874</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1346.028011800776</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.62625240225</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5255752579154</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276368</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731048</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>530.7857816702284</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2440.196039881266</v>
+        <v>2758.053686176686</v>
       </c>
       <c r="N41" t="n">
-        <v>2440.196039881266</v>
+        <v>2758.053686176686</v>
       </c>
       <c r="O41" t="n">
-        <v>3420.375706451572</v>
+        <v>3738.233352746992</v>
       </c>
       <c r="P41" t="n">
-        <v>4060.901860153872</v>
+        <v>4566.543227580389</v>
       </c>
       <c r="Q41" t="n">
-        <v>4607.400646112467</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865524</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S41" t="n">
-        <v>4695.669589495818</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T41" t="n">
-        <v>4478.369114815315</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.913564578789</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V41" t="n">
-        <v>3862.063366959073</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W41" t="n">
-        <v>3459.974664816564</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>3043.598953842333</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2638.079582588444</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D42" t="n">
-        <v>400.1560891917988</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187525</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>222.6518361349141</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>137.266746401098</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>121.5947673777681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.22198770399</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C43" t="n">
-        <v>985.4270286336723</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D43" t="n">
-        <v>822.3157882816524</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E43" t="n">
-        <v>655.3245369788472</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>481.3842353870608</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>318.5597128593458</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H43" t="n">
-        <v>181.4242909961777</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>184.8224734547733</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>462.2926220986818</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>883.2141979394158</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.380256423519</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722074</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.979787765189</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702293</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2715.233187854123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2558.758571598577</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2315.645877623489</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2039.979629323052</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1755.790873639941</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1486.53122167269</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1486.53122167269</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1344.27385397652</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2505.152997546715</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2069.777277176596</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
-        <v>1636.634244797498</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.62625240225</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5255752579154</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>381.8944963276368</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731048</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>343.002060539133</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1177.352352497311</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2252.41231875017</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2252.41231875017</v>
+        <v>2758.053686176685</v>
       </c>
       <c r="N44" t="n">
-        <v>2252.41231875017</v>
+        <v>2758.053686176685</v>
       </c>
       <c r="O44" t="n">
-        <v>3232.591985320476</v>
+        <v>3738.233352746991</v>
       </c>
       <c r="P44" t="n">
-        <v>4060.901860153872</v>
+        <v>4566.543227580388</v>
       </c>
       <c r="Q44" t="n">
-        <v>4607.400646112467</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865524</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>4695.669589495818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4478.369114815315</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4221.913564578789</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3862.063366959073</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>3459.974664816564</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>3043.598953842332</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>2928.685815585166</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>400.1560891917988</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187525</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>222.6518361349141</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>137.266746401098</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>121.5947673777681</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>446.1530923439804</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>932.1933690619538</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>762.3984099916363</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>599.2871696396166</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>432.2959183368116</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>258.3556167450254</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731048</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>184.8224734547733</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.2926220986818</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394157</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.380256423519</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722074</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.979787765189</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702293</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.884256702293</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2660.750505719936</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2417.637811744848</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2141.971563444411</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1857.782807761299</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1588.523155794048</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.898153573918</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1121.245235334483</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8140,19 +8140,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8216,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>604.9339300505465</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.91440664741856</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>224.947097744021</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.9496038847592</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,19 +8617,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>20.72895681335922</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8936,13 +8936,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>686.5429063894599</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,13 +9480,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9954,16 +9954,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>103.8611230965944</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>314.2706063050009</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8611230965944</v>
+        <v>314.2706063050009</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>314.2706063050009</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>646.9961148508087</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>249.9706730523459</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>314.270606305</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>287.7001706667562</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.220053416763818</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>114.1599680048242</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>287.7001706667554</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>18.31929241554607</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627255</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>33.87289402612528</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>44.28436272291282</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.79268646174583</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>102.9863699957342</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>44.07191583437687</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>55.20329178818164</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>37.46509486399529</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475785</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="T40" t="n">
-        <v>40.42347910947925</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>281.346868126281</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>287.700170666756</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979288</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.5715950378316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>287.7001706667569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445363</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>85.03426481107854</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968896</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.5074566204564</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>408242.6365131575</v>
+        <v>410356.3569170368</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>408242.6365131575</v>
+        <v>410736.936924691</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>390822.2132114305</v>
+        <v>408582.0612827243</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>390822.2132114305</v>
+        <v>408582.0612827243</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>408582.0612827243</v>
+        <v>408582.0612827242</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>409678.7987321108</v>
+        <v>408582.0612827244</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>409678.7987321108</v>
+        <v>408582.0612827242</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>391918.950660817</v>
+        <v>408582.0612827243</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>391918.950660817</v>
+        <v>408582.0612827243</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>536147.3198904084</v>
+      </c>
+      <c r="C2" t="n">
         <v>536147.3198904083</v>
-      </c>
-      <c r="C2" t="n">
-        <v>536147.3198904084</v>
       </c>
       <c r="D2" t="n">
         <v>536147.3198904084</v>
       </c>
       <c r="E2" t="n">
-        <v>503956.6505522784</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="F2" t="n">
-        <v>503956.6505522786</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="G2" t="n">
+        <v>526857.5841373524</v>
+      </c>
+      <c r="H2" t="n">
         <v>526857.5841373522</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>526857.5841373523</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>526857.5841373522</v>
-      </c>
-      <c r="J2" t="n">
-        <v>526857.5841373521</v>
       </c>
       <c r="K2" t="n">
         <v>526857.5841373522</v>
@@ -26344,16 +26344,16 @@
         <v>526857.5841373522</v>
       </c>
       <c r="M2" t="n">
-        <v>528424.8315567505</v>
+        <v>526857.5841373524</v>
       </c>
       <c r="N2" t="n">
-        <v>528424.8315567506</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="O2" t="n">
-        <v>505523.8979716766</v>
+        <v>526857.5841373523</v>
       </c>
       <c r="P2" t="n">
-        <v>505523.8979716765</v>
+        <v>526857.5841373523</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501628</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998266</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932544</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319059</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877261</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662222</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017872</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651109</v>
+        <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.2398651109</v>
+        <v>130243.4307963242</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>13626.00881505498</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>13626.00881505498</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049263</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>16824.05777198299</v>
+        <v>14245.20557049253</v>
       </c>
       <c r="N4" t="n">
-        <v>16824.05777198299</v>
+        <v>14245.20557049249</v>
       </c>
       <c r="O4" t="n">
-        <v>16204.86101654533</v>
+        <v>14245.20557049256</v>
       </c>
       <c r="P4" t="n">
-        <v>16204.86101654533</v>
+        <v>14245.2055704926</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800261</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461883</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461883</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.26571663666</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.26571663666</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546297</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.90373546297</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159230.9912283651</v>
+        <v>159230.9912283652</v>
       </c>
       <c r="C6" t="n">
-        <v>301422.2918880752</v>
+        <v>267359.9073910652</v>
       </c>
       <c r="D6" t="n">
-        <v>301422.2918880751</v>
+        <v>328276.3465535329</v>
       </c>
       <c r="E6" t="n">
-        <v>184279.5631193502</v>
+        <v>252515.8064006348</v>
       </c>
       <c r="F6" t="n">
-        <v>417119.7651126048</v>
+        <v>434870.9156216845</v>
       </c>
       <c r="G6" t="n">
-        <v>414575.0559378765</v>
+        <v>434870.9156216846</v>
       </c>
       <c r="H6" t="n">
-        <v>434894.1399610671</v>
+        <v>434870.9156216843</v>
       </c>
       <c r="I6" t="n">
-        <v>434894.139961067</v>
+        <v>434870.9156216845</v>
       </c>
       <c r="J6" t="n">
-        <v>323879.6746160766</v>
+        <v>323856.4502766941</v>
       </c>
       <c r="K6" t="n">
-        <v>434894.139961067</v>
+        <v>381825.0609829117</v>
       </c>
       <c r="L6" t="n">
-        <v>434894.139961067</v>
+        <v>425478.6138950621</v>
       </c>
       <c r="M6" t="n">
-        <v>240220.3299663436</v>
+        <v>282670.7446836969</v>
       </c>
       <c r="N6" t="n">
-        <v>434259.5080681309</v>
+        <v>434870.9156216846</v>
       </c>
       <c r="O6" t="n">
-        <v>416485.1332196683</v>
+        <v>434870.9156216846</v>
       </c>
       <c r="P6" t="n">
-        <v>416485.1332196682</v>
+        <v>434870.9156216845</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.27292082779</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.27292082779</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.138677716381</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.138677716381</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939302</v>
       </c>
       <c r="E4" t="n">
-        <v>779.8304027532317</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140918</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939302</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962765</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939302</v>
       </c>
       <c r="M4" t="n">
-        <v>779.8304027532317</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140918</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>293.806454929668</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>97.00787993732121</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>72.78996144619896</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.226759254238</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>147.3476054486661</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>9.608595956339585</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>213.7345127290503</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.02124405712883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921992875</v>
+        <v>-5.670961125530333e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921992875</v>
+        <v>-2.955857780762017e-12</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921992875</v>
+        <v>4.922345359034951e-12</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921992875</v>
+        <v>-2.501110429875553e-12</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921992875</v>
+        <v>-5.670961125530333e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921992875</v>
+        <v>-9.697685318346741e-13</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921992875</v>
+        <v>-6.936877707947525e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921992875</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>604.9339300505465</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,19 +35024,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.91440664741856</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>224.947097744021</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.9496038847592</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>20.72895681335922</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35586,7 +35586,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821548</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,13 +35656,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>686.5429063894599</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36674,16 +36674,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>103.8611230965944</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>314.2706063050009</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.8366918850629</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.19331236107364</v>
+        <v>87.4542274390856</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180894</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.1733089300344</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865514</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732871</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8611230965944</v>
+        <v>314.2706063050009</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.8366918850629</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.19331236107352</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180895</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1733089300344</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175934</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>314.2706063050009</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>646.9961148508087</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107354</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2728774180894</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300345</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865515</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175934</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>249.9706730523459</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38023,7 +38023,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>314.270606305</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107354</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180894</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300344</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865514</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175934</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
